--- a/doc/redis.xlsx
+++ b/doc/redis.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20376" windowHeight="12816" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>siteId</t>
   </si>
@@ -51,35 +51,42 @@
     <t>http://bbs.redis.cn/forum.php</t>
   </si>
   <si>
+    <t>论坛右侧对联</t>
+  </si>
+  <si>
+    <t>论坛左侧对联</t>
+  </si>
+  <si>
+    <t>page_1474882843539</t>
+  </si>
+  <si>
+    <t>http://www.redis.cn/</t>
+  </si>
+  <si>
+    <t>首页顶部通栏</t>
+  </si>
+  <si>
+    <t>pos_1475983591976</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_1474883012984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_1474883012984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>pos_1474883101714</t>
-  </si>
-  <si>
-    <t>论坛右侧对联</t>
-  </si>
-  <si>
-    <t>pos_1474883012984</t>
-  </si>
-  <si>
-    <t>论坛左侧对联</t>
-  </si>
-  <si>
-    <t>page_1474882843539</t>
-  </si>
-  <si>
-    <t>http://www.redis.cn/</t>
-  </si>
-  <si>
-    <t>pos_1474882843539</t>
-  </si>
-  <si>
-    <t>首页顶部通栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -145,7 +152,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -473,21 +480,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.59765625" customWidth="1"/>
+    <col min="2" max="2" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.69921875" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -524,10 +531,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -538,16 +545,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -558,16 +565,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
